--- a/Tester Results/TEST_DATE.xlsx
+++ b/Tester Results/TEST_DATE.xlsx
@@ -498,24 +498,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56.46955707410534</v>
+        <v>43.70860258220497</v>
       </c>
       <c r="D2" t="n">
-        <v>2.955105185055536e-19</v>
+        <v>3.2269894340711e-10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>7.570388760314017e-12</v>
+        <v>3.220414182037056e-10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-2.279371624469327</v>
+        <v>-0.7112482853223594</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3075465741879707</v>
+        <v>1.430864197530866</v>
       </c>
     </row>
     <row r="3">
@@ -543,41 +543,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68.69206276353385</v>
+        <v>6.602513912876694</v>
       </c>
       <c r="D3" t="n">
-        <v>3.152127238218107e-22</v>
+        <v>0.03683683599089073</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>9.869438599707792e-12</v>
+        <v>0.049822393026943</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-2.328367982727059</v>
+        <v>0.2301097393689986</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3693618348726672</v>
+        <v>-0.6074074074074005</v>
       </c>
     </row>
     <row r="4">
@@ -588,24 +588,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.956243153039428</v>
+        <v>41.64456638097869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05488011370420683</v>
+        <v>9.05726990314957e-10</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.913809571461353e-08</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5857338820301783</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-2.019753086419751</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -615,24 +633,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97.01661053581763</v>
+        <v>70.00295046057281</v>
       </c>
       <c r="D5" t="n">
-        <v>2.882259994596619e-28</v>
+        <v>6.295822118497218e-16</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1.908584401633107e-12</v>
+        <v>2.517974195281362e-15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,10 +664,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-2.638995404429091</v>
+        <v>0.8789437585733882</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.4380745654152298</v>
+        <v>-43.05123456790125</v>
       </c>
     </row>
     <row r="6">
@@ -660,20 +678,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43.70860258220497</v>
+        <v>78.10844503238788</v>
       </c>
       <c r="D6" t="n">
-        <v>3.2269894340711e-10</v>
+        <v>1.093872404052822e-17</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>3.220414182037056e-10</v>
+        <v>1.811058574809449e-17</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -691,10 +709,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-0.7112482853223594</v>
+        <v>0.8936899862825789</v>
       </c>
       <c r="K6" t="n">
-        <v>1.430864197530866</v>
+        <v>-13.43082407407408</v>
       </c>
     </row>
     <row r="7">
@@ -705,42 +723,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.602513912876694</v>
+        <v>3.399749215245777</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03683683599089073</v>
+        <v>0.182706432610324</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.049822393026943</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2301097393689986</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-0.6074074074074005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -750,20 +750,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41.64456638097869</v>
+        <v>92.45678170786096</v>
       </c>
       <c r="D8" t="n">
-        <v>9.05726990314957e-10</v>
+        <v>8.380403795423334e-21</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>4.913809571461353e-08</v>
+        <v>8.009213072298238e-21</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.5857338820301783</v>
+        <v>0.9403292181069959</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.019753086419751</v>
+        <v>-6202.252033950618</v>
       </c>
     </row>
     <row r="9">
@@ -795,24 +795,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16.82888963634087</v>
+        <v>6.04953810728265</v>
       </c>
       <c r="D9" t="n">
-        <v>2.34714901122928e-07</v>
+        <v>0.0485690368170625</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>2.560890071778843e-06</v>
+        <v>0.04532128050298975</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -822,14 +822,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-0.865327748583275</v>
+        <v>-0.2479423868312758</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2070120360301669</v>
+        <v>0.2191358024691343</v>
       </c>
     </row>
     <row r="10">
@@ -840,24 +840,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.830719367304543</v>
+        <v>7.310487494641959</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003600036298072525</v>
+        <v>0.02585519458062661</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00276760188220726</v>
+        <v>0.05618623759864159</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.5998356136542223</v>
+        <v>-0.2235939643347051</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1559374252550928</v>
+        <v>0.9790123456790134</v>
       </c>
     </row>
     <row r="11">
@@ -885,42 +885,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.26976797862904</v>
+        <v>1.652426416423395</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002393949730064458</v>
+        <v>0.4377036445564336</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001987672749211966</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7174124720915523</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1844031577149627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -930,24 +912,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.505177757537633</v>
+        <v>34.52994337542548</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03238356099900517</v>
+        <v>3.176274776712328e-08</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02962492100445191</v>
+        <v>4.553856838281053e-08</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -961,10 +943,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.4977437205563059</v>
+        <v>0.4670781893004116</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1322460553355495</v>
+        <v>-64.82808641975306</v>
       </c>
     </row>
     <row r="13">
@@ -975,20 +957,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.04953810728265</v>
+        <v>15.21319692731006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0485690368170625</v>
+        <v>0.0004971600936808299</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04532128050298975</v>
+        <v>0.0002966025195189699</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1002,14 +984,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.2479423868312758</v>
+        <v>0.4128943758573388</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2191358024691343</v>
+        <v>-14.39813580246913</v>
       </c>
     </row>
     <row r="14">
@@ -1020,20 +1002,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.310487494641959</v>
+        <v>13.64772316056116</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02585519458062661</v>
+        <v>0.001087513283590059</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05618623759864159</v>
+        <v>0.0008544398307826692</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1047,14 +1029,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-0.2235939643347051</v>
+        <v>-0.4039780521262002</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9790123456790134</v>
+        <v>28.49903395061725</v>
       </c>
     </row>
     <row r="15">
@@ -1065,24 +1047,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.652426416423395</v>
+        <v>8.068671261581926</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4377036445564336</v>
+        <v>0.01769743383846177</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01685596818818796</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3161865569272977</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-5053.158296296298</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tester Results/TEST_DATE.xlsx
+++ b/Tester Results/TEST_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.602513912876694</v>
+        <v>6.581660177086218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03683683599089073</v>
+        <v>0.03722293823392107</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.049822393026943</v>
+        <v>0.05041759161138923</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.2301097393689986</v>
+        <v>0.2294238683127572</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.6074074074074005</v>
+        <v>-0.2962962962962905</v>
       </c>
     </row>
     <row r="4">
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41.64456638097869</v>
+        <v>41.64555017513498</v>
       </c>
       <c r="D4" t="n">
-        <v>9.05726990314957e-10</v>
+        <v>9.052815754129513e-10</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>4.913809571461353e-08</v>
+        <v>4.855321249819013e-08</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.00295046057281</v>
+        <v>69.97842046154581</v>
       </c>
       <c r="D5" t="n">
-        <v>6.295822118497218e-16</v>
+        <v>6.37351585659294e-16</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.517974195281362e-15</v>
+        <v>2.53904082828786e-15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -678,20 +678,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78.10844503238788</v>
+        <v>69.81923475990955</v>
       </c>
       <c r="D6" t="n">
-        <v>1.093872404052822e-17</v>
+        <v>6.901536775903369e-16</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1.811058574809449e-17</v>
+        <v>2.880680161129777e-15</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.8936899862825789</v>
+        <v>0.877914951989026</v>
       </c>
       <c r="K6" t="n">
-        <v>-13.43082407407408</v>
+        <v>-42.5364845679012</v>
       </c>
     </row>
     <row r="7">
@@ -723,24 +723,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.399749215245777</v>
+        <v>66.35457116467828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182706432610324</v>
+        <v>3.902006127591008e-15</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.25580156791035e-14</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8593964334705075</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-38.18969135802468</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -750,20 +768,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92.45678170786096</v>
+        <v>73.4794785696854</v>
       </c>
       <c r="D8" t="n">
-        <v>8.380403795423334e-21</v>
+        <v>1.106965184661917e-16</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>8.009213072298238e-21</v>
+        <v>2.548252667791049e-16</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -781,79 +799,61 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.9403292181069959</v>
+        <v>0.8717421124828533</v>
       </c>
       <c r="K8" t="n">
-        <v>-6202.252033950618</v>
+        <v>-19.48248765432101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.04953810728265</v>
+        <v>3.37177577486608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0485690368170625</v>
+        <v>0.185279851250692</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.04532128050298975</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>-0.2479423868312758</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2191358024691343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.310487494641959</v>
+        <v>92.45678170786096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02585519458062661</v>
+        <v>8.380403795423334e-21</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05618623759864159</v>
+        <v>8.009213072298238e-21</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -871,28 +871,28 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.2235939643347051</v>
+        <v>0.9403292181069959</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9790123456790134</v>
+        <v>-6202.252033950618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.652426416423395</v>
+        <v>4.495470657108476e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4377036445564336</v>
+        <v>0.9999775228993283</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -912,20 +912,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34.52994337542548</v>
+        <v>6.04953810728265</v>
       </c>
       <c r="D12" t="n">
-        <v>3.176274776712328e-08</v>
+        <v>0.0485690368170625</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>4.553856838281053e-08</v>
+        <v>0.04532128050298975</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -939,14 +939,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.4670781893004116</v>
+        <v>-0.2479423868312758</v>
       </c>
       <c r="K12" t="n">
-        <v>-64.82808641975306</v>
+        <v>0.2191358024691343</v>
       </c>
     </row>
     <row r="13">
@@ -957,20 +957,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15.21319692731006</v>
+        <v>7.310487494641959</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0004971600936808299</v>
+        <v>0.02585519458062661</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0002966025195189699</v>
+        <v>0.05618623759864159</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.4128943758573388</v>
+        <v>-0.2235939643347051</v>
       </c>
       <c r="K13" t="n">
-        <v>-14.39813580246913</v>
+        <v>0.9790123456790134</v>
       </c>
     </row>
     <row r="14">
@@ -1002,42 +1002,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.64772316056116</v>
+        <v>1.652426416423395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001087513283590059</v>
+        <v>0.4377036445564336</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0008544398307826692</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>-0.4039780521262002</v>
-      </c>
-      <c r="K14" t="n">
-        <v>28.49903395061725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1047,42 +1029,294 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>34.52994337542548</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.176274776712328e-08</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.553856838281053e-08</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.4670781893004116</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-64.82808641975306</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>35.12041876004616</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.364274864985355e-08</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.714501965305556e-08</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0.46639231824417</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-64.85281481481483</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>35.43116835292442</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.024042132153941e-08</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.873939246526556e-08</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0.4636488340192044</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-58.10916975308639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>16.24938776540688</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0002961353683415469</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0001711916657042087</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4149519890260631</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-21.73629938271606</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13.64772316056116</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001087513283590059</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0008544398307826692</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.4039780521262002</v>
+      </c>
+      <c r="K19" t="n">
+        <v>28.49903395061725</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C20" t="n">
         <v>8.068671261581926</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D20" t="n">
         <v>0.01769743383846177</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.01685596818818796</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>June26</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J20" t="n">
         <v>0.3161865569272977</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K20" t="n">
         <v>-5053.158296296298</v>
       </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5.994443106392579e-05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9999700282336303</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tester Results/TEST_DATE.xlsx
+++ b/Tester Results/TEST_DATE.xlsx
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43.70860258220497</v>
+        <v>43.92906290311186</v>
       </c>
       <c r="D2" t="n">
-        <v>3.2269894340711e-10</v>
+        <v>2.890182007122947e-10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>3.220414182037056e-10</v>
+        <v>3.05038986252176e-10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-0.7112482853223594</v>
+        <v>-0.7040466392318243</v>
       </c>
       <c r="K2" t="n">
-        <v>1.430864197530866</v>
+        <v>1.422222222222224</v>
       </c>
     </row>
     <row r="3">
@@ -547,38 +547,20 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.581660177086218</v>
+        <v>2.05944367253803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03722293823392107</v>
+        <v>0.3571062807702854</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.05041759161138923</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2294238683127572</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.2962962962962905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,16 +574,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41.64555017513498</v>
+        <v>39.39954279376722</v>
       </c>
       <c r="D4" t="n">
-        <v>9.052815754129513e-10</v>
+        <v>2.782902478484206e-09</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>4.855321249819013e-08</v>
+        <v>3.18670937347492e-08</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -619,10 +601,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.5857338820301783</v>
+        <v>0.5936213991769548</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.019753086419751</v>
+        <v>-2.103086419753087</v>
       </c>
     </row>
     <row r="5">
@@ -637,16 +619,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69.97842046154581</v>
+        <v>69.24756647262839</v>
       </c>
       <c r="D5" t="n">
-        <v>6.37351585659294e-16</v>
+        <v>9.185060005097847e-16</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.53904082828786e-15</v>
+        <v>2.715202023282111e-15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -664,10 +646,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.8789437585733882</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K5" t="n">
-        <v>-43.05123456790125</v>
+        <v>-42.97500000000002</v>
       </c>
     </row>
     <row r="6">
@@ -682,16 +664,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69.81923475990955</v>
+        <v>69.31640220227568</v>
       </c>
       <c r="D6" t="n">
-        <v>6.901536775903369e-16</v>
+        <v>8.874308233184497e-16</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2.880680161129777e-15</v>
+        <v>2.694192439275724e-15</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -709,10 +691,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.877914951989026</v>
+        <v>0.8882030178326474</v>
       </c>
       <c r="K6" t="n">
-        <v>-42.5364845679012</v>
+        <v>-42.45968209876541</v>
       </c>
     </row>
     <row r="7">
@@ -727,16 +709,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66.35457116467828</v>
+        <v>65.64413811675797</v>
       </c>
       <c r="D7" t="n">
-        <v>3.902006127591008e-15</v>
+        <v>5.566170730918694e-15</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2.25580156791035e-14</v>
+        <v>2.274251294336595e-14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -754,10 +736,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.8593964334705075</v>
+        <v>0.8676268861454046</v>
       </c>
       <c r="K7" t="n">
-        <v>-38.18969135802468</v>
+        <v>-37.90170987654319</v>
       </c>
     </row>
     <row r="8">
@@ -772,16 +754,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73.4794785696854</v>
+        <v>72.74186843057566</v>
       </c>
       <c r="D8" t="n">
-        <v>1.106965184661917e-16</v>
+        <v>1.600677972993098e-16</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2.548252667791049e-16</v>
+        <v>2.41921750886558e-16</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -799,10 +781,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.8717421124828533</v>
+        <v>0.8765432098765432</v>
       </c>
       <c r="K8" t="n">
-        <v>-19.48248765432101</v>
+        <v>-19.4139537037037</v>
       </c>
     </row>
     <row r="9">
@@ -817,10 +799,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.37177577486608</v>
+        <v>3.519469480841906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.185279851250692</v>
+        <v>0.1720905064245064</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -844,16 +826,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>92.45678170786096</v>
+        <v>90.91410201385213</v>
       </c>
       <c r="D10" t="n">
-        <v>8.380403795423334e-21</v>
+        <v>1.812398041057647e-20</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>8.009213072298238e-21</v>
+        <v>1.281913739711252e-20</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -871,10 +853,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.9403292181069959</v>
+        <v>0.9389574759945131</v>
       </c>
       <c r="K10" t="n">
-        <v>-6202.252033950618</v>
+        <v>-6171.364978395062</v>
       </c>
     </row>
     <row r="11">
@@ -916,38 +898,20 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.04953810728265</v>
+        <v>5.037402640364617</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0485690368170625</v>
+        <v>0.08056416589668902</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.04532128050298975</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>-0.2479423868312758</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2191358024691343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -961,16 +925,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.310487494641959</v>
+        <v>7.910185404488575</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02585519458062661</v>
+        <v>0.01915689258039081</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05618623759864159</v>
+        <v>0.03552860661468887</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -988,10 +952,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.2235939643347051</v>
+        <v>-0.2462277091906722</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9790123456790134</v>
+        <v>0.8407407407407383</v>
       </c>
     </row>
     <row r="14">
@@ -1006,10 +970,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.652426416423395</v>
+        <v>1.896363626238487</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4377036445564336</v>
+        <v>0.3874448305421158</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1033,16 +997,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34.52994337542548</v>
+        <v>32.61435455295586</v>
       </c>
       <c r="D15" t="n">
-        <v>3.176274776712328e-08</v>
+        <v>8.277189409485798e-08</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>4.553856838281053e-08</v>
+        <v>8.992820820698487e-08</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1060,10 +1024,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.4670781893004116</v>
+        <v>0.4626200274348422</v>
       </c>
       <c r="K15" t="n">
-        <v>-64.82808641975306</v>
+        <v>-64.1577160493827</v>
       </c>
     </row>
     <row r="16">
@@ -1078,16 +1042,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35.12041876004616</v>
+        <v>33.15823844749082</v>
       </c>
       <c r="D16" t="n">
-        <v>2.364274864985355e-08</v>
+        <v>6.306378113319813e-08</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3.714501965305556e-08</v>
+        <v>7.321579623358072e-08</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1105,10 +1069,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.46639231824417</v>
+        <v>0.4636488340192044</v>
       </c>
       <c r="K16" t="n">
-        <v>-64.85281481481483</v>
+        <v>-64.3420277777778</v>
       </c>
     </row>
     <row r="17">
@@ -1123,16 +1087,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35.43116835292442</v>
+        <v>33.93443569953045</v>
       </c>
       <c r="D17" t="n">
-        <v>2.024042132153941e-08</v>
+        <v>4.277902820031999e-08</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>3.873939246526556e-08</v>
+        <v>6.24192723212597e-08</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1150,10 +1114,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.4636488340192044</v>
+        <v>0.4650205761316872</v>
       </c>
       <c r="K17" t="n">
-        <v>-58.10916975308639</v>
+        <v>-57.31808024691357</v>
       </c>
     </row>
     <row r="18">
@@ -1168,16 +1132,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.24938776540688</v>
+        <v>16.29422605973394</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002961353683415469</v>
+        <v>0.0002895701343929133</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001711916657042087</v>
+        <v>0.0001667702816112874</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1195,10 +1159,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.4149519890260631</v>
+        <v>0.4176954732510288</v>
       </c>
       <c r="K18" t="n">
-        <v>-21.73629938271606</v>
+        <v>-21.64067283950616</v>
       </c>
     </row>
     <row r="19">
@@ -1213,16 +1177,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13.64772316056116</v>
+        <v>12.84538025869546</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001087513283590059</v>
+        <v>0.001624280826699231</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0008544398307826692</v>
+        <v>0.001188695723472046</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1240,10 +1204,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-0.4039780521262002</v>
+        <v>-0.3930041152263375</v>
       </c>
       <c r="K19" t="n">
-        <v>28.49903395061725</v>
+        <v>28.92485802469133</v>
       </c>
     </row>
     <row r="20">
@@ -1258,16 +1222,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.068671261581926</v>
+        <v>8.469607075832926</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01769743383846177</v>
+        <v>0.01448265521089982</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01685596818818796</v>
+        <v>0.01494492782622095</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1285,10 +1249,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.3161865569272977</v>
+        <v>0.3203017832647462</v>
       </c>
       <c r="K20" t="n">
-        <v>-5053.158296296298</v>
+        <v>-5077.038175925929</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1267,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.994443106392579e-05</v>
+        <v>0.0001049027543760875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999700282336303</v>
+        <v>0.9999475499983614</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>

--- a/Tester Results/TEST_DATE.xlsx
+++ b/Tester Results/TEST_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,19 +862,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.495470657108476e-05</v>
+        <v>5.037402640364617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999775228993283</v>
+        <v>0.08056416589668902</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -894,24 +894,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.037402640364617</v>
+        <v>7.910185404488575</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08056416589668902</v>
+        <v>0.01915689258039081</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03552860661468887</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.2462277091906722</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8407407407407383</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -921,42 +939,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.910185404488575</v>
+        <v>1.896363626238487</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01915689258039081</v>
+        <v>0.3874448305421158</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.03552860661468887</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.2462277091906722</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.8407407407407383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -966,24 +966,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.896363626238487</v>
+        <v>32.61435455295586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3874448305421158</v>
+        <v>8.277189409485798e-08</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.992820820698487e-08</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4626200274348422</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-64.1577160493827</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -993,20 +1011,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32.61435455295586</v>
+        <v>33.15823844749082</v>
       </c>
       <c r="D15" t="n">
-        <v>8.277189409485798e-08</v>
+        <v>6.306378113319813e-08</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>8.992820820698487e-08</v>
+        <v>7.321579623358072e-08</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1024,10 +1042,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.4626200274348422</v>
+        <v>0.4636488340192044</v>
       </c>
       <c r="K15" t="n">
-        <v>-64.1577160493827</v>
+        <v>-64.3420277777778</v>
       </c>
     </row>
     <row r="16">
@@ -1038,20 +1056,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33.15823844749082</v>
+        <v>33.93443569953045</v>
       </c>
       <c r="D16" t="n">
-        <v>6.306378113319813e-08</v>
+        <v>4.277902820031999e-08</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>7.321579623358072e-08</v>
+        <v>6.24192723212597e-08</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1069,10 +1087,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.4636488340192044</v>
+        <v>0.4650205761316872</v>
       </c>
       <c r="K16" t="n">
-        <v>-64.3420277777778</v>
+        <v>-57.31808024691357</v>
       </c>
     </row>
     <row r="17">
@@ -1083,20 +1101,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33.93443569953045</v>
+        <v>16.29422605973394</v>
       </c>
       <c r="D17" t="n">
-        <v>4.277902820031999e-08</v>
+        <v>0.0002895701343929133</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>6.24192723212597e-08</v>
+        <v>0.0001667702816112874</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1114,10 +1132,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.4650205761316872</v>
+        <v>0.4176954732510288</v>
       </c>
       <c r="K17" t="n">
-        <v>-57.31808024691357</v>
+        <v>-21.64067283950616</v>
       </c>
     </row>
     <row r="18">
@@ -1128,20 +1146,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.29422605973394</v>
+        <v>12.84538025869546</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002895701343929133</v>
+        <v>0.001624280826699231</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001667702816112874</v>
+        <v>0.001188695723472046</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1155,14 +1173,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.4176954732510288</v>
+        <v>-0.3930041152263375</v>
       </c>
       <c r="K18" t="n">
-        <v>-21.64067283950616</v>
+        <v>28.92485802469133</v>
       </c>
     </row>
     <row r="19">
@@ -1173,20 +1191,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12.84538025869546</v>
+        <v>8.469607075832926</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001624280826699231</v>
+        <v>0.01448265521089982</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001188695723472046</v>
+        <v>0.01494492782622095</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1200,87 +1218,15 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-0.3930041152263375</v>
+        <v>0.3203017832647462</v>
       </c>
       <c r="K19" t="n">
-        <v>28.92485802469133</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>8.469607075832926</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.01448265521089982</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.01494492782622095</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>0.3203017832647462</v>
-      </c>
-      <c r="K20" t="n">
         <v>-5077.038175925929</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0001049027543760875</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9999475499983614</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tester Results/TEST_DATE.xlsx
+++ b/Tester Results/TEST_DATE.xlsx
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43.92906290311186</v>
+        <v>43.70860258220497</v>
       </c>
       <c r="D2" t="n">
-        <v>2.890182007122947e-10</v>
+        <v>3.2269894340711e-10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>3.05038986252176e-10</v>
+        <v>3.220414182037056e-10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-0.7040466392318243</v>
+        <v>-0.7112482853223594</v>
       </c>
       <c r="K2" t="n">
-        <v>1.422222222222224</v>
+        <v>1.430864197530866</v>
       </c>
     </row>
     <row r="3">
@@ -547,20 +547,38 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.05944367253803</v>
+        <v>6.581660177086218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3571062807702854</v>
+        <v>0.03722293823392107</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05041759161138923</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2294238683127572</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.2962962962962905</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,16 +592,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39.39954279376722</v>
+        <v>41.64555017513498</v>
       </c>
       <c r="D4" t="n">
-        <v>2.782902478484206e-09</v>
+        <v>9.052815754129513e-10</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>3.18670937347492e-08</v>
+        <v>4.855321249819013e-08</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -601,10 +619,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.5936213991769548</v>
+        <v>0.5857338820301783</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.103086419753087</v>
+        <v>-2.019753086419751</v>
       </c>
     </row>
     <row r="5">
@@ -619,16 +637,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69.24756647262839</v>
+        <v>69.97842046154581</v>
       </c>
       <c r="D5" t="n">
-        <v>9.185060005097847e-16</v>
+        <v>6.37351585659294e-16</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.715202023282111e-15</v>
+        <v>2.53904082828786e-15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -646,10 +664,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8789437585733882</v>
       </c>
       <c r="K5" t="n">
-        <v>-42.97500000000002</v>
+        <v>-43.05123456790125</v>
       </c>
     </row>
     <row r="6">
@@ -664,16 +682,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69.31640220227568</v>
+        <v>69.81923475990955</v>
       </c>
       <c r="D6" t="n">
-        <v>8.874308233184497e-16</v>
+        <v>6.901536775903369e-16</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2.694192439275724e-15</v>
+        <v>2.880680161129777e-15</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -691,10 +709,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.8882030178326474</v>
+        <v>0.877914951989026</v>
       </c>
       <c r="K6" t="n">
-        <v>-42.45968209876541</v>
+        <v>-42.5364845679012</v>
       </c>
     </row>
     <row r="7">
@@ -709,16 +727,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.64413811675797</v>
+        <v>66.35457116467828</v>
       </c>
       <c r="D7" t="n">
-        <v>5.566170730918694e-15</v>
+        <v>3.902006127591008e-15</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2.274251294336595e-14</v>
+        <v>2.25580156791035e-14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -736,10 +754,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.8676268861454046</v>
+        <v>0.8593964334705075</v>
       </c>
       <c r="K7" t="n">
-        <v>-37.90170987654319</v>
+        <v>-38.18969135802468</v>
       </c>
     </row>
     <row r="8">
@@ -754,16 +772,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>72.74186843057566</v>
+        <v>73.4794785696854</v>
       </c>
       <c r="D8" t="n">
-        <v>1.600677972993098e-16</v>
+        <v>1.106965184661917e-16</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2.41921750886558e-16</v>
+        <v>2.548252667791049e-16</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -781,10 +799,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.8765432098765432</v>
+        <v>0.8717421124828533</v>
       </c>
       <c r="K8" t="n">
-        <v>-19.4139537037037</v>
+        <v>-19.48248765432101</v>
       </c>
     </row>
     <row r="9">
@@ -799,10 +817,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.519469480841906</v>
+        <v>3.37177577486608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1720905064245064</v>
+        <v>0.185279851250692</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -826,16 +844,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>90.91410201385213</v>
+        <v>92.45678170786096</v>
       </c>
       <c r="D10" t="n">
-        <v>1.812398041057647e-20</v>
+        <v>8.380403795423334e-21</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1.281913739711252e-20</v>
+        <v>8.009213072298238e-21</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -853,10 +871,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.9389574759945131</v>
+        <v>0.9403292181069959</v>
       </c>
       <c r="K10" t="n">
-        <v>-6171.364978395062</v>
+        <v>-6202.252033950618</v>
       </c>
     </row>
     <row r="11">
@@ -871,20 +889,38 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.037402640364617</v>
+        <v>6.04953810728265</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08056416589668902</v>
+        <v>0.0485690368170625</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04532128050298975</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2479423868312758</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2191358024691343</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,16 +934,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.910185404488575</v>
+        <v>7.310487494641959</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01915689258039081</v>
+        <v>0.02585519458062661</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03552860661468887</v>
+        <v>0.05618623759864159</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -925,10 +961,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.2462277091906722</v>
+        <v>-0.2235939643347051</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8407407407407383</v>
+        <v>0.9790123456790134</v>
       </c>
     </row>
     <row r="13">
@@ -943,10 +979,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.896363626238487</v>
+        <v>1.652426416423395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3874448305421158</v>
+        <v>0.4377036445564336</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -970,16 +1006,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32.61435455295586</v>
+        <v>34.52994337542548</v>
       </c>
       <c r="D14" t="n">
-        <v>8.277189409485798e-08</v>
+        <v>3.176274776712328e-08</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>8.992820820698487e-08</v>
+        <v>4.553856838281053e-08</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -997,10 +1033,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.4626200274348422</v>
+        <v>0.4670781893004116</v>
       </c>
       <c r="K14" t="n">
-        <v>-64.1577160493827</v>
+        <v>-64.82808641975306</v>
       </c>
     </row>
     <row r="15">
@@ -1015,16 +1051,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33.15823844749082</v>
+        <v>35.12041876004616</v>
       </c>
       <c r="D15" t="n">
-        <v>6.306378113319813e-08</v>
+        <v>2.364274864985355e-08</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>7.321579623358072e-08</v>
+        <v>3.714501965305556e-08</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1042,10 +1078,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.4636488340192044</v>
+        <v>0.46639231824417</v>
       </c>
       <c r="K15" t="n">
-        <v>-64.3420277777778</v>
+        <v>-64.85281481481483</v>
       </c>
     </row>
     <row r="16">
@@ -1060,16 +1096,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33.93443569953045</v>
+        <v>35.43116835292442</v>
       </c>
       <c r="D16" t="n">
-        <v>4.277902820031999e-08</v>
+        <v>2.024042132153941e-08</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>6.24192723212597e-08</v>
+        <v>3.873939246526556e-08</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1087,10 +1123,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.4650205761316872</v>
+        <v>0.4636488340192044</v>
       </c>
       <c r="K16" t="n">
-        <v>-57.31808024691357</v>
+        <v>-58.10916975308639</v>
       </c>
     </row>
     <row r="17">
@@ -1105,16 +1141,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.29422605973394</v>
+        <v>16.24938776540688</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0002895701343929133</v>
+        <v>0.0002961353683415469</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001667702816112874</v>
+        <v>0.0001711916657042087</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1132,10 +1168,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.4176954732510288</v>
+        <v>0.4149519890260631</v>
       </c>
       <c r="K17" t="n">
-        <v>-21.64067283950616</v>
+        <v>-21.73629938271606</v>
       </c>
     </row>
     <row r="18">
@@ -1150,16 +1186,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12.84538025869546</v>
+        <v>13.64772316056116</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001624280826699231</v>
+        <v>0.001087513283590059</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001188695723472046</v>
+        <v>0.0008544398307826692</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1177,10 +1213,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-0.3930041152263375</v>
+        <v>-0.4039780521262002</v>
       </c>
       <c r="K18" t="n">
-        <v>28.92485802469133</v>
+        <v>28.49903395061725</v>
       </c>
     </row>
     <row r="19">
@@ -1195,16 +1231,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.469607075832926</v>
+        <v>8.068671261581926</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01448265521089982</v>
+        <v>0.01769743383846177</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01494492782622095</v>
+        <v>0.01685596818818796</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1222,10 +1258,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.3203017832647462</v>
+        <v>0.3161865569272977</v>
       </c>
       <c r="K19" t="n">
-        <v>-5077.038175925929</v>
+        <v>-5053.158296296298</v>
       </c>
     </row>
   </sheetData>
